--- a/normativa/Anexos/L01T03C08/L01T03C08A03-1.xlsx
+++ b/normativa/Anexos/L01T03C08/L01T03C08A03-1.xlsx
@@ -10,14 +10,14 @@
     <sheet name="anexo 3.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'anexo 3.1'!$A$1:$AL$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'anexo 3.1'!$A$1:$AL$68</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>ENTIDAD:</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>Justificación de la acción:</t>
-  </si>
-  <si>
-    <t>Tipos de cajero automático (marcar con una X)</t>
   </si>
   <si>
     <t>1. Interno ubicado en la misma entidad</t>
@@ -309,12 +306,51 @@
   <si>
     <t>2. Observaciones, aclaraciones o comentarios: (Ej. Cercanía a otros cajeros automáticos, proximidad a oficinas propias, proximidad a otras entidades financieras, etc.)</t>
   </si>
+  <si>
+    <t xml:space="preserve">     5.1  Recepción de depósitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5.2  Transferencias interbancarias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5.4  Otra (Especificar):</t>
+  </si>
+  <si>
+    <t>5. Cajeros Automáticos Especiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5.3  Fraccionamiento de billetes</t>
+  </si>
+  <si>
+    <r>
+      <t>Tipo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> de cajero automático (marcar con una X)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +472,13 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -566,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -628,28 +671,115 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -661,15 +791,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -681,63 +802,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,13 +831,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>256887</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>134216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>170296</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>168853</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -804,7 +868,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1090,20 +1154,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA68"/>
+  <dimension ref="A1:BA73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A46" zoomScale="60" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A49" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:AL60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="30" width="3.7109375" style="1"/>
     <col min="31" max="31" width="8.42578125" style="1" customWidth="1"/>
     <col min="32" max="16384" width="3.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1122,88 +1186,88 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
+      <c r="A2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
     </row>
     <row r="3" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
+      <c r="A3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
       <c r="AM3" s="4"/>
       <c r="AN3" s="4"/>
       <c r="AO3" s="4"/>
@@ -1212,7 +1276,7 @@
       <c r="AR3" s="4"/>
       <c r="AS3" s="4"/>
     </row>
-    <row r="4" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1231,48 +1295,48 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:45" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="54"/>
-    </row>
-    <row r="6" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="40"/>
+    </row>
+    <row r="6" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1300,88 +1364,88 @@
       <c r="Y6" s="6"/>
     </row>
     <row r="7" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="45"/>
-      <c r="AJ7" s="45"/>
-      <c r="AK7" s="45"/>
-      <c r="AL7" s="46"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="54"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="54"/>
+      <c r="AK7" s="54"/>
+      <c r="AL7" s="55"/>
     </row>
     <row r="8" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="46"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="55"/>
     </row>
     <row r="9" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -1424,130 +1488,130 @@
       <c r="AL9" s="9"/>
     </row>
     <row r="10" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="66"/>
+      <c r="A10" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="57"/>
+      <c r="AL10" s="58"/>
     </row>
     <row r="11" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="39"/>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="39"/>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="39"/>
-      <c r="AL11" s="40"/>
-    </row>
-    <row r="12" spans="1:45" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A11" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="63"/>
+      <c r="AE11" s="63"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="63"/>
+      <c r="AJ11" s="63"/>
+      <c r="AK11" s="63"/>
+      <c r="AL11" s="64"/>
+    </row>
+    <row r="12" spans="1:45" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="37"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="60"/>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="60"/>
+      <c r="AK12" s="60"/>
+      <c r="AL12" s="61"/>
     </row>
     <row r="13" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
@@ -1590,218 +1654,218 @@
       <c r="AL13" s="9"/>
     </row>
     <row r="14" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
-      <c r="AB14" s="65"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="65"/>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="65"/>
-      <c r="AG14" s="65"/>
-      <c r="AH14" s="65"/>
-      <c r="AI14" s="65"/>
-      <c r="AJ14" s="65"/>
-      <c r="AK14" s="65"/>
-      <c r="AL14" s="66"/>
-    </row>
-    <row r="15" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="37"/>
-    </row>
-    <row r="16" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A14" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="57"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="57"/>
+      <c r="AL14" s="58"/>
+    </row>
+    <row r="15" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="60"/>
+      <c r="AB15" s="60"/>
+      <c r="AC15" s="60"/>
+      <c r="AD15" s="60"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="60"/>
+      <c r="AG15" s="60"/>
+      <c r="AH15" s="60"/>
+      <c r="AI15" s="60"/>
+      <c r="AJ15" s="60"/>
+      <c r="AK15" s="60"/>
+      <c r="AL15" s="61"/>
+    </row>
+    <row r="16" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="60"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="60"/>
+      <c r="AG16" s="60"/>
+      <c r="AH16" s="60"/>
+      <c r="AI16" s="60"/>
+      <c r="AJ16" s="60"/>
+      <c r="AK16" s="60"/>
+      <c r="AL16" s="61"/>
+    </row>
+    <row r="17" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="36"/>
-      <c r="AC16" s="36"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="36"/>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36"/>
-      <c r="AI16" s="36"/>
-      <c r="AJ16" s="36"/>
-      <c r="AK16" s="36"/>
-      <c r="AL16" s="37"/>
-    </row>
-    <row r="17" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="37"/>
-    </row>
-    <row r="18" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="37"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="60"/>
+      <c r="AG17" s="60"/>
+      <c r="AH17" s="60"/>
+      <c r="AI17" s="60"/>
+      <c r="AJ17" s="60"/>
+      <c r="AK17" s="60"/>
+      <c r="AL17" s="61"/>
+    </row>
+    <row r="18" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="60"/>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="60"/>
+      <c r="AD18" s="60"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="60"/>
+      <c r="AG18" s="60"/>
+      <c r="AH18" s="60"/>
+      <c r="AI18" s="60"/>
+      <c r="AJ18" s="60"/>
+      <c r="AK18" s="60"/>
+      <c r="AL18" s="61"/>
     </row>
     <row r="19" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
@@ -1841,7 +1905,7 @@
       <c r="AK19" s="32"/>
       <c r="AL19" s="32"/>
     </row>
-    <row r="20" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1882,24 +1946,24 @@
       <c r="AL20" s="9"/>
     </row>
     <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="43"/>
+      <c r="A21" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="72"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
@@ -1924,24 +1988,24 @@
       <c r="AL21" s="9"/>
     </row>
     <row r="22" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="40"/>
+      <c r="A22" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="69"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
@@ -1967,7 +2031,7 @@
     </row>
     <row r="23" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -2009,7 +2073,7 @@
     </row>
     <row r="24" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -2051,7 +2115,7 @@
     </row>
     <row r="25" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -2093,7 +2157,7 @@
     </row>
     <row r="26" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -2135,7 +2199,7 @@
     </row>
     <row r="27" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -2170,7 +2234,7 @@
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
@@ -2179,7 +2243,7 @@
     </row>
     <row r="28" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -2221,7 +2285,7 @@
     </row>
     <row r="29" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -2263,7 +2327,7 @@
     </row>
     <row r="30" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2305,7 +2369,7 @@
     </row>
     <row r="31" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2347,7 +2411,7 @@
     </row>
     <row r="32" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -2388,22 +2452,24 @@
       <c r="AL32" s="9"/>
     </row>
     <row r="33" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
+      <c r="A33" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="13"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
@@ -2427,25 +2493,25 @@
       <c r="AK33" s="9"/>
       <c r="AL33" s="9"/>
     </row>
-    <row r="34" spans="1:38" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="63"/>
+    <row r="34" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="13"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
@@ -2470,22 +2536,22 @@
       <c r="AL34" s="9"/>
     </row>
     <row r="35" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
+      <c r="A35" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="35"/>
       <c r="O35" s="11"/>
       <c r="P35" s="13"/>
       <c r="Q35" s="10"/>
@@ -2512,22 +2578,22 @@
       <c r="AL35" s="9"/>
     </row>
     <row r="36" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
+      <c r="A36" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="35"/>
       <c r="O36" s="11"/>
       <c r="P36" s="13"/>
       <c r="Q36" s="10"/>
@@ -2554,22 +2620,22 @@
       <c r="AL36" s="9"/>
     </row>
     <row r="37" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
+      <c r="A37" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="35"/>
       <c r="O37" s="11"/>
       <c r="P37" s="13"/>
       <c r="Q37" s="10"/>
@@ -2596,24 +2662,22 @@
       <c r="AL37" s="9"/>
     </row>
     <row r="38" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="13"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
@@ -2637,23 +2701,25 @@
       <c r="AK38" s="9"/>
       <c r="AL38" s="9"/>
     </row>
-    <row r="39" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
+    <row r="39" spans="1:38" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="52"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
@@ -2677,25 +2743,25 @@
       <c r="AK39" s="9"/>
       <c r="AL39" s="9"/>
     </row>
-    <row r="40" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="17"/>
+    <row r="40" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="13"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
@@ -2720,22 +2786,24 @@
       <c r="AL40" s="9"/>
     </row>
     <row r="41" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
+      <c r="A41" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="13"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
@@ -2759,9 +2827,9 @@
       <c r="AK41" s="9"/>
       <c r="AL41" s="9"/>
     </row>
-    <row r="42" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>13</v>
+    <row r="42" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -2776,7 +2844,7 @@
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
+      <c r="O42" s="11"/>
       <c r="P42" s="13"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
@@ -2801,9 +2869,9 @@
       <c r="AK42" s="9"/>
       <c r="AL42" s="9"/>
     </row>
-    <row r="43" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -2843,25 +2911,23 @@
       <c r="AK43" s="9"/>
       <c r="AL43" s="9"/>
     </row>
-    <row r="44" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="13"/>
+    <row r="44" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
@@ -2885,23 +2951,25 @@
       <c r="AK44" s="9"/>
       <c r="AL44" s="9"/>
     </row>
-    <row r="45" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
+    <row r="45" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="17"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
@@ -2925,757 +2993,787 @@
       <c r="AK45" s="9"/>
       <c r="AL45" s="9"/>
     </row>
-    <row r="46" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+    <row r="46" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="9"/>
+      <c r="AG46" s="9"/>
+      <c r="AH46" s="9"/>
+      <c r="AI46" s="9"/>
+      <c r="AJ46" s="9"/>
+      <c r="AK46" s="9"/>
+      <c r="AL46" s="9"/>
+    </row>
+    <row r="47" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="9"/>
+      <c r="AG47" s="9"/>
+      <c r="AH47" s="9"/>
+      <c r="AI47" s="9"/>
+      <c r="AJ47" s="9"/>
+      <c r="AK47" s="9"/>
+      <c r="AL47" s="9"/>
+    </row>
+    <row r="48" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="9"/>
+      <c r="AC48" s="9"/>
+      <c r="AD48" s="9"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="9"/>
+      <c r="AG48" s="9"/>
+      <c r="AH48" s="9"/>
+      <c r="AI48" s="9"/>
+      <c r="AJ48" s="9"/>
+      <c r="AK48" s="9"/>
+      <c r="AL48" s="9"/>
+    </row>
+    <row r="49" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="9"/>
+      <c r="AE49" s="9"/>
+      <c r="AF49" s="9"/>
+      <c r="AG49" s="9"/>
+      <c r="AH49" s="9"/>
+      <c r="AI49" s="9"/>
+      <c r="AJ49" s="9"/>
+      <c r="AK49" s="9"/>
+      <c r="AL49" s="9"/>
+    </row>
+    <row r="50" spans="1:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="9"/>
+      <c r="AB50" s="9"/>
+      <c r="AC50" s="9"/>
+      <c r="AD50" s="9"/>
+      <c r="AE50" s="9"/>
+      <c r="AF50" s="9"/>
+      <c r="AG50" s="9"/>
+      <c r="AH50" s="9"/>
+      <c r="AI50" s="9"/>
+      <c r="AJ50" s="9"/>
+      <c r="AK50" s="9"/>
+      <c r="AL50" s="9"/>
+    </row>
+    <row r="51" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="54"/>
+      <c r="T51" s="54"/>
+      <c r="U51" s="54"/>
+      <c r="V51" s="54"/>
+      <c r="W51" s="54"/>
+      <c r="X51" s="54"/>
+      <c r="Y51" s="54"/>
+      <c r="Z51" s="54"/>
+      <c r="AA51" s="54"/>
+      <c r="AB51" s="54"/>
+      <c r="AC51" s="54"/>
+      <c r="AD51" s="54"/>
+      <c r="AE51" s="54"/>
+      <c r="AF51" s="55"/>
+      <c r="AG51" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
-      <c r="U46" s="45"/>
-      <c r="V46" s="45"/>
-      <c r="W46" s="45"/>
-      <c r="X46" s="45"/>
-      <c r="Y46" s="45"/>
-      <c r="Z46" s="45"/>
-      <c r="AA46" s="45"/>
-      <c r="AB46" s="45"/>
-      <c r="AC46" s="45"/>
-      <c r="AD46" s="45"/>
-      <c r="AE46" s="45"/>
-      <c r="AF46" s="46"/>
-      <c r="AG46" s="55" t="s">
+      <c r="AH51" s="45"/>
+      <c r="AI51" s="45"/>
+      <c r="AJ51" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK51" s="45"/>
+      <c r="AL51" s="46"/>
+    </row>
+    <row r="52" spans="1:53" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="48"/>
+      <c r="S52" s="48"/>
+      <c r="T52" s="48"/>
+      <c r="U52" s="48"/>
+      <c r="V52" s="48"/>
+      <c r="W52" s="48"/>
+      <c r="X52" s="48"/>
+      <c r="Y52" s="48"/>
+      <c r="Z52" s="48"/>
+      <c r="AA52" s="48"/>
+      <c r="AB52" s="48"/>
+      <c r="AC52" s="48"/>
+      <c r="AD52" s="48"/>
+      <c r="AE52" s="48"/>
+      <c r="AF52" s="49"/>
+      <c r="AG52" s="44"/>
+      <c r="AH52" s="45"/>
+      <c r="AI52" s="45"/>
+      <c r="AJ52" s="44"/>
+      <c r="AK52" s="45"/>
+      <c r="AL52" s="46"/>
+    </row>
+    <row r="53" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="42"/>
+      <c r="Y53" s="42"/>
+      <c r="Z53" s="42"/>
+      <c r="AA53" s="42"/>
+      <c r="AB53" s="42"/>
+      <c r="AC53" s="42"/>
+      <c r="AD53" s="42"/>
+      <c r="AE53" s="42"/>
+      <c r="AF53" s="42"/>
+      <c r="AG53" s="42"/>
+      <c r="AH53" s="42"/>
+      <c r="AI53" s="42"/>
+      <c r="AJ53" s="42"/>
+      <c r="AK53" s="42"/>
+      <c r="AL53" s="43"/>
+    </row>
+    <row r="54" spans="1:53" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="74"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="74"/>
+      <c r="R54" s="74"/>
+      <c r="S54" s="74"/>
+      <c r="T54" s="74"/>
+      <c r="U54" s="74"/>
+      <c r="V54" s="74"/>
+      <c r="W54" s="74"/>
+      <c r="X54" s="74"/>
+      <c r="Y54" s="74"/>
+      <c r="Z54" s="74"/>
+      <c r="AA54" s="74"/>
+      <c r="AB54" s="74"/>
+      <c r="AC54" s="74"/>
+      <c r="AD54" s="74"/>
+      <c r="AE54" s="74"/>
+      <c r="AF54" s="74"/>
+      <c r="AG54" s="74"/>
+      <c r="AH54" s="74"/>
+      <c r="AI54" s="74"/>
+      <c r="AJ54" s="74"/>
+      <c r="AK54" s="74"/>
+      <c r="AL54" s="75"/>
+      <c r="AM54" s="24"/>
+      <c r="AN54" s="24"/>
+      <c r="AO54" s="24"/>
+      <c r="AP54" s="24"/>
+      <c r="AQ54" s="24"/>
+      <c r="AR54" s="24"/>
+      <c r="AS54" s="24"/>
+      <c r="AT54" s="24"/>
+      <c r="AU54" s="24"/>
+      <c r="AV54" s="24"/>
+      <c r="AW54" s="24"/>
+      <c r="AX54" s="24"/>
+      <c r="AY54" s="24"/>
+      <c r="AZ54" s="24"/>
+      <c r="BA54" s="24"/>
+    </row>
+    <row r="55" spans="1:53" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="26"/>
+      <c r="S55" s="26"/>
+      <c r="T55" s="26"/>
+      <c r="U55" s="26"/>
+      <c r="V55" s="26"/>
+      <c r="W55" s="26"/>
+      <c r="X55" s="26"/>
+      <c r="Y55" s="26"/>
+      <c r="Z55" s="26"/>
+      <c r="AA55" s="26"/>
+      <c r="AB55" s="26"/>
+      <c r="AC55" s="26"/>
+      <c r="AD55" s="26"/>
+      <c r="AE55" s="26"/>
+      <c r="AF55" s="26"/>
+      <c r="AG55" s="26"/>
+      <c r="AH55" s="27"/>
+      <c r="AI55" s="27"/>
+      <c r="AJ55" s="27"/>
+      <c r="AK55" s="27"/>
+      <c r="AL55" s="29"/>
+      <c r="AM55" s="24"/>
+      <c r="AN55" s="24"/>
+      <c r="AO55" s="24"/>
+      <c r="AP55" s="24"/>
+      <c r="AQ55" s="24"/>
+      <c r="AR55" s="24"/>
+      <c r="AS55" s="24"/>
+      <c r="AT55" s="24"/>
+      <c r="AU55" s="24"/>
+      <c r="AV55" s="24"/>
+      <c r="AW55" s="24"/>
+      <c r="AX55" s="24"/>
+      <c r="AY55" s="24"/>
+      <c r="AZ55" s="24"/>
+      <c r="BA55" s="24"/>
+    </row>
+    <row r="56" spans="1:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="9"/>
+      <c r="AC56" s="9"/>
+      <c r="AD56" s="9"/>
+      <c r="AE56" s="9"/>
+      <c r="AF56" s="9"/>
+      <c r="AG56" s="9"/>
+      <c r="AH56" s="9"/>
+      <c r="AI56" s="9"/>
+      <c r="AJ56" s="9"/>
+      <c r="AK56" s="9"/>
+      <c r="AL56" s="9"/>
+    </row>
+    <row r="57" spans="1:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AH46" s="56"/>
-      <c r="AI46" s="56"/>
-      <c r="AJ46" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK46" s="56"/>
-      <c r="AL46" s="57"/>
-    </row>
-    <row r="47" spans="1:38" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="59"/>
-      <c r="O47" s="59"/>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="59"/>
-      <c r="S47" s="59"/>
-      <c r="T47" s="59"/>
-      <c r="U47" s="59"/>
-      <c r="V47" s="59"/>
-      <c r="W47" s="59"/>
-      <c r="X47" s="59"/>
-      <c r="Y47" s="59"/>
-      <c r="Z47" s="59"/>
-      <c r="AA47" s="59"/>
-      <c r="AB47" s="59"/>
-      <c r="AC47" s="59"/>
-      <c r="AD47" s="59"/>
-      <c r="AE47" s="59"/>
-      <c r="AF47" s="60"/>
-      <c r="AG47" s="55"/>
-      <c r="AH47" s="56"/>
-      <c r="AI47" s="56"/>
-      <c r="AJ47" s="55"/>
-      <c r="AK47" s="56"/>
-      <c r="AL47" s="57"/>
-    </row>
-    <row r="48" spans="1:38" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="68"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="68"/>
-      <c r="N48" s="68"/>
-      <c r="O48" s="68"/>
-      <c r="P48" s="68"/>
-      <c r="Q48" s="68"/>
-      <c r="R48" s="68"/>
-      <c r="S48" s="68"/>
-      <c r="T48" s="68"/>
-      <c r="U48" s="68"/>
-      <c r="V48" s="68"/>
-      <c r="W48" s="68"/>
-      <c r="X48" s="68"/>
-      <c r="Y48" s="68"/>
-      <c r="Z48" s="68"/>
-      <c r="AA48" s="68"/>
-      <c r="AB48" s="68"/>
-      <c r="AC48" s="68"/>
-      <c r="AD48" s="68"/>
-      <c r="AE48" s="68"/>
-      <c r="AF48" s="68"/>
-      <c r="AG48" s="68"/>
-      <c r="AH48" s="68"/>
-      <c r="AI48" s="68"/>
-      <c r="AJ48" s="68"/>
-      <c r="AK48" s="68"/>
-      <c r="AL48" s="69"/>
-    </row>
-    <row r="49" spans="1:53" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="48"/>
-      <c r="S49" s="48"/>
-      <c r="T49" s="48"/>
-      <c r="U49" s="48"/>
-      <c r="V49" s="48"/>
-      <c r="W49" s="48"/>
-      <c r="X49" s="48"/>
-      <c r="Y49" s="48"/>
-      <c r="Z49" s="48"/>
-      <c r="AA49" s="48"/>
-      <c r="AB49" s="48"/>
-      <c r="AC49" s="48"/>
-      <c r="AD49" s="48"/>
-      <c r="AE49" s="48"/>
-      <c r="AF49" s="48"/>
-      <c r="AG49" s="48"/>
-      <c r="AH49" s="48"/>
-      <c r="AI49" s="48"/>
-      <c r="AJ49" s="48"/>
-      <c r="AK49" s="48"/>
-      <c r="AL49" s="49"/>
-      <c r="AM49" s="24"/>
-      <c r="AN49" s="24"/>
-      <c r="AO49" s="24"/>
-      <c r="AP49" s="24"/>
-      <c r="AQ49" s="24"/>
-      <c r="AR49" s="24"/>
-      <c r="AS49" s="24"/>
-      <c r="AT49" s="24"/>
-      <c r="AU49" s="24"/>
-      <c r="AV49" s="24"/>
-      <c r="AW49" s="24"/>
-      <c r="AX49" s="24"/>
-      <c r="AY49" s="24"/>
-      <c r="AZ49" s="24"/>
-      <c r="BA49" s="24"/>
-    </row>
-    <row r="50" spans="1:53" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="26"/>
-      <c r="S50" s="26"/>
-      <c r="T50" s="26"/>
-      <c r="U50" s="26"/>
-      <c r="V50" s="26"/>
-      <c r="W50" s="26"/>
-      <c r="X50" s="26"/>
-      <c r="Y50" s="26"/>
-      <c r="Z50" s="26"/>
-      <c r="AA50" s="26"/>
-      <c r="AB50" s="26"/>
-      <c r="AC50" s="26"/>
-      <c r="AD50" s="26"/>
-      <c r="AE50" s="26"/>
-      <c r="AF50" s="26"/>
-      <c r="AG50" s="26"/>
-      <c r="AH50" s="27"/>
-      <c r="AI50" s="27"/>
-      <c r="AJ50" s="27"/>
-      <c r="AK50" s="27"/>
-      <c r="AL50" s="29"/>
-      <c r="AM50" s="24"/>
-      <c r="AN50" s="24"/>
-      <c r="AO50" s="24"/>
-      <c r="AP50" s="24"/>
-      <c r="AQ50" s="24"/>
-      <c r="AR50" s="24"/>
-      <c r="AS50" s="24"/>
-      <c r="AT50" s="24"/>
-      <c r="AU50" s="24"/>
-      <c r="AV50" s="24"/>
-      <c r="AW50" s="24"/>
-      <c r="AX50" s="24"/>
-      <c r="AY50" s="24"/>
-      <c r="AZ50" s="24"/>
-      <c r="BA50" s="24"/>
-    </row>
-    <row r="51" spans="1:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
-      <c r="Z51" s="9"/>
-      <c r="AA51" s="9"/>
-      <c r="AB51" s="9"/>
-      <c r="AC51" s="9"/>
-      <c r="AD51" s="9"/>
-      <c r="AE51" s="9"/>
-      <c r="AF51" s="9"/>
-      <c r="AG51" s="9"/>
-      <c r="AH51" s="9"/>
-      <c r="AI51" s="9"/>
-      <c r="AJ51" s="9"/>
-      <c r="AK51" s="9"/>
-      <c r="AL51" s="9"/>
-    </row>
-    <row r="52" spans="1:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="21"/>
+      <c r="AA57" s="21"/>
+      <c r="AB57" s="21"/>
+      <c r="AC57" s="21"/>
+      <c r="AD57" s="21"/>
+      <c r="AE57" s="21"/>
+      <c r="AF57" s="21"/>
+      <c r="AG57" s="21"/>
+      <c r="AH57" s="21"/>
+      <c r="AI57" s="21"/>
+      <c r="AJ57" s="21"/>
+      <c r="AK57" s="21"/>
+      <c r="AL57" s="22"/>
+    </row>
+    <row r="58" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
-      <c r="X52" s="20"/>
-      <c r="Y52" s="20"/>
-      <c r="Z52" s="21"/>
-      <c r="AA52" s="21"/>
-      <c r="AB52" s="21"/>
-      <c r="AC52" s="21"/>
-      <c r="AD52" s="21"/>
-      <c r="AE52" s="21"/>
-      <c r="AF52" s="21"/>
-      <c r="AG52" s="21"/>
-      <c r="AH52" s="21"/>
-      <c r="AI52" s="21"/>
-      <c r="AJ52" s="21"/>
-      <c r="AK52" s="21"/>
-      <c r="AL52" s="22"/>
-    </row>
-    <row r="53" spans="1:53" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="36"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="36"/>
-      <c r="U53" s="36"/>
-      <c r="V53" s="36"/>
-      <c r="W53" s="36"/>
-      <c r="X53" s="36"/>
-      <c r="Y53" s="36"/>
-      <c r="Z53" s="36"/>
-      <c r="AA53" s="36"/>
-      <c r="AB53" s="36"/>
-      <c r="AC53" s="36"/>
-      <c r="AD53" s="36"/>
-      <c r="AE53" s="36"/>
-      <c r="AF53" s="36"/>
-      <c r="AG53" s="36"/>
-      <c r="AH53" s="36"/>
-      <c r="AI53" s="36"/>
-      <c r="AJ53" s="36"/>
-      <c r="AK53" s="36"/>
-      <c r="AL53" s="37"/>
-    </row>
-    <row r="54" spans="1:53" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="36"/>
-      <c r="R54" s="36"/>
-      <c r="S54" s="36"/>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
-      <c r="V54" s="36"/>
-      <c r="W54" s="36"/>
-      <c r="X54" s="36"/>
-      <c r="Y54" s="36"/>
-      <c r="Z54" s="36"/>
-      <c r="AA54" s="36"/>
-      <c r="AB54" s="36"/>
-      <c r="AC54" s="36"/>
-      <c r="AD54" s="36"/>
-      <c r="AE54" s="36"/>
-      <c r="AF54" s="36"/>
-      <c r="AG54" s="36"/>
-      <c r="AH54" s="36"/>
-      <c r="AI54" s="36"/>
-      <c r="AJ54" s="36"/>
-      <c r="AK54" s="36"/>
-      <c r="AL54" s="37"/>
-    </row>
-    <row r="55" spans="1:53" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="36"/>
-      <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="36"/>
-      <c r="Z55" s="36"/>
-      <c r="AA55" s="36"/>
-      <c r="AB55" s="36"/>
-      <c r="AC55" s="36"/>
-      <c r="AD55" s="36"/>
-      <c r="AE55" s="36"/>
-      <c r="AF55" s="36"/>
-      <c r="AG55" s="36"/>
-      <c r="AH55" s="36"/>
-      <c r="AI55" s="36"/>
-      <c r="AJ55" s="36"/>
-      <c r="AK55" s="36"/>
-      <c r="AL55" s="37"/>
-    </row>
-    <row r="56" spans="1:53" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60"/>
+      <c r="N58" s="60"/>
+      <c r="O58" s="60"/>
+      <c r="P58" s="60"/>
+      <c r="Q58" s="60"/>
+      <c r="R58" s="60"/>
+      <c r="S58" s="60"/>
+      <c r="T58" s="60"/>
+      <c r="U58" s="60"/>
+      <c r="V58" s="60"/>
+      <c r="W58" s="60"/>
+      <c r="X58" s="60"/>
+      <c r="Y58" s="60"/>
+      <c r="Z58" s="60"/>
+      <c r="AA58" s="60"/>
+      <c r="AB58" s="60"/>
+      <c r="AC58" s="60"/>
+      <c r="AD58" s="60"/>
+      <c r="AE58" s="60"/>
+      <c r="AF58" s="60"/>
+      <c r="AG58" s="60"/>
+      <c r="AH58" s="60"/>
+      <c r="AI58" s="60"/>
+      <c r="AJ58" s="60"/>
+      <c r="AK58" s="60"/>
+      <c r="AL58" s="61"/>
+    </row>
+    <row r="59" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="60"/>
+      <c r="N59" s="60"/>
+      <c r="O59" s="60"/>
+      <c r="P59" s="60"/>
+      <c r="Q59" s="60"/>
+      <c r="R59" s="60"/>
+      <c r="S59" s="60"/>
+      <c r="T59" s="60"/>
+      <c r="U59" s="60"/>
+      <c r="V59" s="60"/>
+      <c r="W59" s="60"/>
+      <c r="X59" s="60"/>
+      <c r="Y59" s="60"/>
+      <c r="Z59" s="60"/>
+      <c r="AA59" s="60"/>
+      <c r="AB59" s="60"/>
+      <c r="AC59" s="60"/>
+      <c r="AD59" s="60"/>
+      <c r="AE59" s="60"/>
+      <c r="AF59" s="60"/>
+      <c r="AG59" s="60"/>
+      <c r="AH59" s="60"/>
+      <c r="AI59" s="60"/>
+      <c r="AJ59" s="60"/>
+      <c r="AK59" s="60"/>
+      <c r="AL59" s="61"/>
+    </row>
+    <row r="60" spans="1:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="36"/>
-      <c r="T56" s="36"/>
-      <c r="U56" s="36"/>
-      <c r="V56" s="36"/>
-      <c r="W56" s="36"/>
-      <c r="X56" s="36"/>
-      <c r="Y56" s="36"/>
-      <c r="Z56" s="36"/>
-      <c r="AA56" s="36"/>
-      <c r="AB56" s="36"/>
-      <c r="AC56" s="36"/>
-      <c r="AD56" s="36"/>
-      <c r="AE56" s="36"/>
-      <c r="AF56" s="36"/>
-      <c r="AG56" s="36"/>
-      <c r="AH56" s="36"/>
-      <c r="AI56" s="36"/>
-      <c r="AJ56" s="36"/>
-      <c r="AK56" s="36"/>
-      <c r="AL56" s="37"/>
-    </row>
-    <row r="57" spans="1:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="23"/>
-      <c r="S57" s="23"/>
-      <c r="T57" s="23"/>
-      <c r="U57" s="23"/>
-      <c r="V57" s="23"/>
-      <c r="W57" s="23"/>
-      <c r="X57" s="23"/>
-      <c r="Y57" s="23"/>
-      <c r="Z57" s="9"/>
-      <c r="AA57" s="9"/>
-      <c r="AB57" s="9"/>
-      <c r="AC57" s="9"/>
-      <c r="AD57" s="9"/>
-      <c r="AE57" s="9"/>
-      <c r="AF57" s="9"/>
-      <c r="AG57" s="9"/>
-      <c r="AH57" s="9"/>
-      <c r="AI57" s="9"/>
-      <c r="AJ57" s="9"/>
-      <c r="AK57" s="9"/>
-      <c r="AL57" s="9"/>
-    </row>
-    <row r="58" spans="1:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="23"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="23"/>
-      <c r="U58" s="23"/>
-      <c r="V58" s="23"/>
-      <c r="W58" s="23"/>
-      <c r="X58" s="23"/>
-      <c r="Y58" s="23"/>
-      <c r="Z58" s="9"/>
-      <c r="AA58" s="9"/>
-      <c r="AB58" s="9"/>
-      <c r="AC58" s="9"/>
-      <c r="AD58" s="9"/>
-      <c r="AE58" s="9"/>
-      <c r="AF58" s="9"/>
-      <c r="AG58" s="9"/>
-      <c r="AH58" s="9"/>
-      <c r="AI58" s="9"/>
-      <c r="AJ58" s="9"/>
-      <c r="AK58" s="9"/>
-      <c r="AL58" s="9"/>
-    </row>
-    <row r="59" spans="1:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-    </row>
-    <row r="60" spans="1:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-    </row>
-    <row r="61" spans="1:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="33"/>
-      <c r="U61" s="33"/>
-      <c r="V61" s="33"/>
-      <c r="W61" s="33"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="33"/>
-      <c r="Z61" s="33"/>
-      <c r="AA61" s="33"/>
-      <c r="AB61" s="50"/>
-      <c r="AC61" s="50"/>
-      <c r="AD61" s="50"/>
-      <c r="AE61" s="50"/>
-      <c r="AF61" s="50"/>
-      <c r="AG61" s="50"/>
-      <c r="AH61" s="50"/>
-      <c r="AI61" s="50"/>
-      <c r="AJ61" s="50"/>
-      <c r="AK61" s="50"/>
-      <c r="AL61" s="50"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="60"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="60"/>
+      <c r="P60" s="60"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="60"/>
+      <c r="S60" s="60"/>
+      <c r="T60" s="60"/>
+      <c r="U60" s="60"/>
+      <c r="V60" s="60"/>
+      <c r="W60" s="60"/>
+      <c r="X60" s="60"/>
+      <c r="Y60" s="60"/>
+      <c r="Z60" s="60"/>
+      <c r="AA60" s="60"/>
+      <c r="AB60" s="60"/>
+      <c r="AC60" s="60"/>
+      <c r="AD60" s="60"/>
+      <c r="AE60" s="60"/>
+      <c r="AF60" s="60"/>
+      <c r="AG60" s="60"/>
+      <c r="AH60" s="60"/>
+      <c r="AI60" s="60"/>
+      <c r="AJ60" s="60"/>
+      <c r="AK60" s="60"/>
+      <c r="AL60" s="61"/>
+    </row>
+    <row r="61" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="60"/>
+      <c r="P61" s="60"/>
+      <c r="Q61" s="60"/>
+      <c r="R61" s="60"/>
+      <c r="S61" s="60"/>
+      <c r="T61" s="60"/>
+      <c r="U61" s="60"/>
+      <c r="V61" s="60"/>
+      <c r="W61" s="60"/>
+      <c r="X61" s="60"/>
+      <c r="Y61" s="60"/>
+      <c r="Z61" s="60"/>
+      <c r="AA61" s="60"/>
+      <c r="AB61" s="60"/>
+      <c r="AC61" s="60"/>
+      <c r="AD61" s="60"/>
+      <c r="AE61" s="60"/>
+      <c r="AF61" s="60"/>
+      <c r="AG61" s="60"/>
+      <c r="AH61" s="60"/>
+      <c r="AI61" s="60"/>
+      <c r="AJ61" s="60"/>
+      <c r="AK61" s="60"/>
+      <c r="AL61" s="61"/>
     </row>
     <row r="62" spans="1:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="34"/>
-      <c r="U62" s="34"/>
-      <c r="V62" s="34"/>
-      <c r="W62" s="34"/>
-      <c r="X62" s="34"/>
-      <c r="Y62" s="34"/>
-      <c r="Z62" s="34"/>
-      <c r="AA62" s="34"/>
-      <c r="AB62" s="34"/>
-      <c r="AC62" s="34"/>
-      <c r="AD62" s="34"/>
-      <c r="AE62" s="34"/>
-      <c r="AF62" s="34"/>
-      <c r="AG62" s="34"/>
-      <c r="AH62" s="34"/>
-      <c r="AI62" s="34"/>
-      <c r="AJ62" s="34"/>
-      <c r="AK62" s="34"/>
-      <c r="AL62" s="34"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="23"/>
+      <c r="T62" s="23"/>
+      <c r="U62" s="23"/>
+      <c r="V62" s="23"/>
+      <c r="W62" s="23"/>
+      <c r="X62" s="23"/>
+      <c r="Y62" s="23"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
+      <c r="AB62" s="9"/>
+      <c r="AC62" s="9"/>
+      <c r="AD62" s="9"/>
+      <c r="AE62" s="9"/>
+      <c r="AF62" s="9"/>
+      <c r="AG62" s="9"/>
+      <c r="AH62" s="9"/>
+      <c r="AI62" s="9"/>
+      <c r="AJ62" s="9"/>
+      <c r="AK62" s="9"/>
+      <c r="AL62" s="9"/>
     </row>
     <row r="63" spans="1:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="34"/>
-      <c r="U63" s="34"/>
-      <c r="V63" s="34"/>
-      <c r="W63" s="34"/>
-      <c r="X63" s="34"/>
-      <c r="Y63" s="34"/>
-      <c r="Z63" s="34"/>
-      <c r="AA63" s="34"/>
-      <c r="AB63" s="34"/>
-      <c r="AC63" s="34"/>
-      <c r="AD63" s="34"/>
-      <c r="AE63" s="34"/>
-      <c r="AF63" s="34"/>
-      <c r="AG63" s="34"/>
-      <c r="AH63" s="34"/>
-      <c r="AI63" s="34"/>
-      <c r="AJ63" s="34"/>
-      <c r="AK63" s="34"/>
-      <c r="AL63" s="34"/>
-    </row>
-    <row r="64" spans="1:53" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="23"/>
+      <c r="T63" s="23"/>
+      <c r="U63" s="23"/>
+      <c r="V63" s="23"/>
+      <c r="W63" s="23"/>
+      <c r="X63" s="23"/>
+      <c r="Y63" s="23"/>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="9"/>
+      <c r="AB63" s="9"/>
+      <c r="AC63" s="9"/>
+      <c r="AD63" s="9"/>
+      <c r="AE63" s="9"/>
+      <c r="AF63" s="9"/>
+      <c r="AG63" s="9"/>
+      <c r="AH63" s="9"/>
+      <c r="AI63" s="9"/>
+      <c r="AJ63" s="9"/>
+      <c r="AK63" s="9"/>
+      <c r="AL63" s="9"/>
+    </row>
+    <row r="64" spans="1:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3702,7 +3800,7 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
     </row>
-    <row r="65" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3729,130 +3827,305 @@
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
     </row>
-    <row r="66" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="3"/>
-    </row>
-    <row r="67" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
+    <row r="66" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="65"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
+      <c r="K66" s="65"/>
+      <c r="L66" s="65"/>
+      <c r="M66" s="65"/>
+      <c r="N66" s="65"/>
+      <c r="O66" s="65"/>
+      <c r="P66" s="65"/>
+      <c r="Q66" s="65"/>
+      <c r="R66" s="65"/>
+      <c r="S66" s="65"/>
+      <c r="T66" s="65"/>
+      <c r="U66" s="65"/>
+      <c r="V66" s="65"/>
+      <c r="W66" s="65"/>
+      <c r="X66" s="65"/>
+      <c r="Y66" s="65"/>
+      <c r="Z66" s="65"/>
+      <c r="AA66" s="65"/>
+      <c r="AB66" s="76"/>
+      <c r="AC66" s="76"/>
+      <c r="AD66" s="76"/>
+      <c r="AE66" s="76"/>
+      <c r="AF66" s="76"/>
+      <c r="AG66" s="76"/>
+      <c r="AH66" s="76"/>
+      <c r="AI66" s="76"/>
+      <c r="AJ66" s="76"/>
+      <c r="AK66" s="76"/>
+      <c r="AL66" s="76"/>
+    </row>
+    <row r="67" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="66"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="66"/>
+      <c r="L67" s="66"/>
+      <c r="M67" s="66"/>
+      <c r="N67" s="66"/>
+      <c r="O67" s="66"/>
+      <c r="P67" s="66"/>
+      <c r="Q67" s="66"/>
+      <c r="R67" s="66"/>
+      <c r="S67" s="66"/>
+      <c r="T67" s="66"/>
+      <c r="U67" s="66"/>
+      <c r="V67" s="66"/>
+      <c r="W67" s="66"/>
+      <c r="X67" s="66"/>
+      <c r="Y67" s="66"/>
+      <c r="Z67" s="66"/>
+      <c r="AA67" s="66"/>
+      <c r="AB67" s="66"/>
+      <c r="AC67" s="66"/>
+      <c r="AD67" s="66"/>
+      <c r="AE67" s="66"/>
+      <c r="AF67" s="66"/>
+      <c r="AG67" s="66"/>
+      <c r="AH67" s="66"/>
+      <c r="AI67" s="66"/>
+      <c r="AJ67" s="66"/>
+      <c r="AK67" s="66"/>
+      <c r="AL67" s="66"/>
+    </row>
+    <row r="68" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="66"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="66"/>
+      <c r="M68" s="66"/>
+      <c r="N68" s="66"/>
+      <c r="O68" s="66"/>
+      <c r="P68" s="66"/>
+      <c r="Q68" s="66"/>
+      <c r="R68" s="66"/>
+      <c r="S68" s="66"/>
+      <c r="T68" s="66"/>
+      <c r="U68" s="66"/>
+      <c r="V68" s="66"/>
+      <c r="W68" s="66"/>
+      <c r="X68" s="66"/>
+      <c r="Y68" s="66"/>
+      <c r="Z68" s="66"/>
+      <c r="AA68" s="66"/>
+      <c r="AB68" s="66"/>
+      <c r="AC68" s="66"/>
+      <c r="AD68" s="66"/>
+      <c r="AE68" s="66"/>
+      <c r="AF68" s="66"/>
+      <c r="AG68" s="66"/>
+      <c r="AH68" s="66"/>
+      <c r="AI68" s="66"/>
+      <c r="AJ68" s="66"/>
+      <c r="AK68" s="66"/>
+      <c r="AL68" s="66"/>
+    </row>
+    <row r="69" spans="1:38" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+    </row>
+    <row r="70" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+    </row>
+    <row r="71" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+    </row>
+    <row r="72" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+    </row>
+    <row r="73" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="O66:AA66"/>
+    <mergeCell ref="A39:P39"/>
     <mergeCell ref="A14:AL14"/>
-    <mergeCell ref="A61:N61"/>
+    <mergeCell ref="A66:N66"/>
+    <mergeCell ref="A67:AL68"/>
+    <mergeCell ref="A16:AL16"/>
+    <mergeCell ref="A17:AL17"/>
+    <mergeCell ref="A18:AL18"/>
+    <mergeCell ref="A61:AL61"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A21:P21"/>
+    <mergeCell ref="A58:AL58"/>
+    <mergeCell ref="A59:AL59"/>
+    <mergeCell ref="A60:AL60"/>
+    <mergeCell ref="A51:AF51"/>
+    <mergeCell ref="A54:AL54"/>
+    <mergeCell ref="AB66:AL66"/>
     <mergeCell ref="A2:AL2"/>
     <mergeCell ref="A5:AL5"/>
-    <mergeCell ref="A48:AL48"/>
-    <mergeCell ref="AJ46:AL46"/>
-    <mergeCell ref="AG46:AI46"/>
-    <mergeCell ref="AG47:AI47"/>
-    <mergeCell ref="AJ47:AL47"/>
-    <mergeCell ref="A47:AF47"/>
-    <mergeCell ref="A40:N40"/>
+    <mergeCell ref="A53:AL53"/>
+    <mergeCell ref="AJ51:AL51"/>
+    <mergeCell ref="AG51:AI51"/>
+    <mergeCell ref="AG52:AI52"/>
+    <mergeCell ref="AJ52:AL52"/>
+    <mergeCell ref="A52:AF52"/>
+    <mergeCell ref="A45:N45"/>
     <mergeCell ref="A3:AL3"/>
     <mergeCell ref="A7:AL7"/>
     <mergeCell ref="A8:AL8"/>
     <mergeCell ref="A10:AL10"/>
+    <mergeCell ref="A12:AL12"/>
+    <mergeCell ref="A15:AL15"/>
     <mergeCell ref="A11:AL11"/>
-    <mergeCell ref="A12:AL12"/>
-    <mergeCell ref="O61:AA61"/>
-    <mergeCell ref="A15:AL15"/>
-    <mergeCell ref="A62:AL63"/>
-    <mergeCell ref="A16:AL16"/>
-    <mergeCell ref="A17:AL17"/>
-    <mergeCell ref="A18:AL18"/>
-    <mergeCell ref="A56:AL56"/>
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A53:AL53"/>
-    <mergeCell ref="A54:AL54"/>
-    <mergeCell ref="A55:AL55"/>
-    <mergeCell ref="A46:AF46"/>
-    <mergeCell ref="A49:AL49"/>
-    <mergeCell ref="A34:P34"/>
-    <mergeCell ref="AB61:AL61"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="60" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
-RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
+    <oddHeader>&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;L&amp;"Arial,Negrita"&amp;5&amp;K0033CCControl de versiones&amp;"Arial,Normal"&amp;K01+000
-Circular ASFI/472/2017 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
+Circular ASFI/740/2022 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
 Título III
 Capítulo VIII
 Anexo 3.1

--- a/normativa/Anexos/L01T03C08/L01T03C08A03-1.xlsx
+++ b/normativa/Anexos/L01T03C08/L01T03C08A03-1.xlsx
@@ -195,29 +195,6 @@
   </si>
   <si>
     <t>Punto de atención financiera que permite a los clientes y/o usuarios de servicios financieros mediante la operación de una máquina dedicada al efecto, realizar retiros y/o depósitos de efectivo, consultas de movimientos y saldos, rescate de cuotas, transferencias entre cuentas propias y a cuentas de terceros, carga y efectivización de billetera móvil y/o pagos de servicios, mediante el uso de tarjetas de débito, tarjetas de crédito, tarjetas prepagadas o un dispositivo móvil, que debe cumplir con lo establecido en el Reglamento para el Funcionamiento de Cajeros Automáticos contenido en la Recopilación de Normas para Servicios Financieros.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">(1) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red Supernet.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -343,6 +320,39 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve"> de cajero automático (marcar con una X)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(1) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red ASFINet</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
 </sst>
@@ -683,6 +693,78 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,42 +805,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -766,42 +812,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1156,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A49" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:AL60"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScale="115" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:AL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1186,88 +1196,88 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
     </row>
     <row r="3" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
       <c r="AM3" s="4"/>
       <c r="AN3" s="4"/>
       <c r="AO3" s="4"/>
@@ -1295,46 +1305,46 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:45" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="40"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="63"/>
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="63"/>
+      <c r="AL5" s="64"/>
     </row>
     <row r="6" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -1364,88 +1374,88 @@
       <c r="Y6" s="6"/>
     </row>
     <row r="7" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="54"/>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="54"/>
-      <c r="AI7" s="54"/>
-      <c r="AJ7" s="54"/>
-      <c r="AK7" s="54"/>
-      <c r="AL7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="55"/>
+      <c r="AG7" s="55"/>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="55"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="55"/>
+      <c r="AL7" s="56"/>
     </row>
     <row r="8" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="54"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="56"/>
     </row>
     <row r="9" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -1488,130 +1498,130 @@
       <c r="AL9" s="9"/>
     </row>
     <row r="10" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="57"/>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="57"/>
-      <c r="AJ10" s="57"/>
-      <c r="AK10" s="57"/>
-      <c r="AL10" s="58"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="42"/>
+      <c r="AK10" s="42"/>
+      <c r="AL10" s="43"/>
     </row>
     <row r="11" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="63"/>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="63"/>
-      <c r="AC11" s="63"/>
-      <c r="AD11" s="63"/>
-      <c r="AE11" s="63"/>
-      <c r="AF11" s="63"/>
-      <c r="AG11" s="63"/>
-      <c r="AH11" s="63"/>
-      <c r="AI11" s="63"/>
-      <c r="AJ11" s="63"/>
-      <c r="AK11" s="63"/>
-      <c r="AL11" s="64"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
+      <c r="AH11" s="75"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="75"/>
+      <c r="AL11" s="76"/>
     </row>
     <row r="12" spans="1:45" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="60"/>
-      <c r="AH12" s="60"/>
-      <c r="AI12" s="60"/>
-      <c r="AJ12" s="60"/>
-      <c r="AK12" s="60"/>
-      <c r="AL12" s="61"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="46"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="47"/>
     </row>
     <row r="13" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
@@ -1654,218 +1664,218 @@
       <c r="AL13" s="9"/>
     </row>
     <row r="14" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="57"/>
-      <c r="AJ14" s="57"/>
-      <c r="AK14" s="57"/>
-      <c r="AL14" s="58"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="42"/>
+      <c r="AI14" s="42"/>
+      <c r="AJ14" s="42"/>
+      <c r="AK14" s="42"/>
+      <c r="AL14" s="43"/>
     </row>
     <row r="15" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="60"/>
-      <c r="AD15" s="60"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="60"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="60"/>
-      <c r="AI15" s="60"/>
-      <c r="AJ15" s="60"/>
-      <c r="AK15" s="60"/>
-      <c r="AL15" s="61"/>
+      <c r="A15" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="46"/>
+      <c r="AL15" s="47"/>
     </row>
     <row r="16" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="60"/>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="60"/>
-      <c r="AD16" s="60"/>
-      <c r="AE16" s="60"/>
-      <c r="AF16" s="60"/>
-      <c r="AG16" s="60"/>
-      <c r="AH16" s="60"/>
-      <c r="AI16" s="60"/>
-      <c r="AJ16" s="60"/>
-      <c r="AK16" s="60"/>
-      <c r="AL16" s="61"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="46"/>
+      <c r="AJ16" s="46"/>
+      <c r="AK16" s="46"/>
+      <c r="AL16" s="47"/>
     </row>
     <row r="17" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="60"/>
-      <c r="AB17" s="60"/>
-      <c r="AC17" s="60"/>
-      <c r="AD17" s="60"/>
-      <c r="AE17" s="60"/>
-      <c r="AF17" s="60"/>
-      <c r="AG17" s="60"/>
-      <c r="AH17" s="60"/>
-      <c r="AI17" s="60"/>
-      <c r="AJ17" s="60"/>
-      <c r="AK17" s="60"/>
-      <c r="AL17" s="61"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="46"/>
+      <c r="AL17" s="47"/>
     </row>
     <row r="18" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="60"/>
-      <c r="AB18" s="60"/>
-      <c r="AC18" s="60"/>
-      <c r="AD18" s="60"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="60"/>
-      <c r="AG18" s="60"/>
-      <c r="AH18" s="60"/>
-      <c r="AI18" s="60"/>
-      <c r="AJ18" s="60"/>
-      <c r="AK18" s="60"/>
-      <c r="AL18" s="61"/>
+      <c r="A18" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="46"/>
+      <c r="AL18" s="47"/>
     </row>
     <row r="19" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
@@ -1946,24 +1956,24 @@
       <c r="AL20" s="9"/>
     </row>
     <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="72"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="53"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
@@ -1988,24 +1998,24 @@
       <c r="AL21" s="9"/>
     </row>
     <row r="22" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="69"/>
+      <c r="A22" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
@@ -2453,7 +2463,7 @@
     </row>
     <row r="33" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
@@ -2495,7 +2505,7 @@
     </row>
     <row r="34" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
@@ -2537,7 +2547,7 @@
     </row>
     <row r="35" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
@@ -2579,7 +2589,7 @@
     </row>
     <row r="36" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
@@ -2621,7 +2631,7 @@
     </row>
     <row r="37" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
@@ -2702,24 +2712,24 @@
       <c r="AL38" s="9"/>
     </row>
     <row r="39" spans="1:38" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="52"/>
+      <c r="A39" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
@@ -2745,7 +2755,7 @@
     </row>
     <row r="40" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -2787,7 +2797,7 @@
     </row>
     <row r="41" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -2829,7 +2839,7 @@
     </row>
     <row r="42" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -2871,7 +2881,7 @@
     </row>
     <row r="43" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -2952,22 +2962,22 @@
       <c r="AL44" s="9"/>
     </row>
     <row r="45" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="52"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="40"/>
       <c r="O45" s="16"/>
       <c r="P45" s="17"/>
       <c r="Q45" s="10"/>
@@ -3200,176 +3210,176 @@
       <c r="AL50" s="9"/>
     </row>
     <row r="51" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="54"/>
-      <c r="U51" s="54"/>
-      <c r="V51" s="54"/>
-      <c r="W51" s="54"/>
-      <c r="X51" s="54"/>
-      <c r="Y51" s="54"/>
-      <c r="Z51" s="54"/>
-      <c r="AA51" s="54"/>
-      <c r="AB51" s="54"/>
-      <c r="AC51" s="54"/>
-      <c r="AD51" s="54"/>
-      <c r="AE51" s="54"/>
-      <c r="AF51" s="55"/>
-      <c r="AG51" s="44" t="s">
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="55"/>
+      <c r="P51" s="55"/>
+      <c r="Q51" s="55"/>
+      <c r="R51" s="55"/>
+      <c r="S51" s="55"/>
+      <c r="T51" s="55"/>
+      <c r="U51" s="55"/>
+      <c r="V51" s="55"/>
+      <c r="W51" s="55"/>
+      <c r="X51" s="55"/>
+      <c r="Y51" s="55"/>
+      <c r="Z51" s="55"/>
+      <c r="AA51" s="55"/>
+      <c r="AB51" s="55"/>
+      <c r="AC51" s="55"/>
+      <c r="AD51" s="55"/>
+      <c r="AE51" s="55"/>
+      <c r="AF51" s="56"/>
+      <c r="AG51" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="AH51" s="45"/>
-      <c r="AI51" s="45"/>
-      <c r="AJ51" s="44" t="s">
+      <c r="AH51" s="69"/>
+      <c r="AI51" s="69"/>
+      <c r="AJ51" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="AK51" s="45"/>
-      <c r="AL51" s="46"/>
+      <c r="AK51" s="69"/>
+      <c r="AL51" s="70"/>
     </row>
     <row r="52" spans="1:53" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="48"/>
-      <c r="S52" s="48"/>
-      <c r="T52" s="48"/>
-      <c r="U52" s="48"/>
-      <c r="V52" s="48"/>
-      <c r="W52" s="48"/>
-      <c r="X52" s="48"/>
-      <c r="Y52" s="48"/>
-      <c r="Z52" s="48"/>
-      <c r="AA52" s="48"/>
-      <c r="AB52" s="48"/>
-      <c r="AC52" s="48"/>
-      <c r="AD52" s="48"/>
-      <c r="AE52" s="48"/>
-      <c r="AF52" s="49"/>
-      <c r="AG52" s="44"/>
-      <c r="AH52" s="45"/>
-      <c r="AI52" s="45"/>
-      <c r="AJ52" s="44"/>
-      <c r="AK52" s="45"/>
-      <c r="AL52" s="46"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="72"/>
+      <c r="S52" s="72"/>
+      <c r="T52" s="72"/>
+      <c r="U52" s="72"/>
+      <c r="V52" s="72"/>
+      <c r="W52" s="72"/>
+      <c r="X52" s="72"/>
+      <c r="Y52" s="72"/>
+      <c r="Z52" s="72"/>
+      <c r="AA52" s="72"/>
+      <c r="AB52" s="72"/>
+      <c r="AC52" s="72"/>
+      <c r="AD52" s="72"/>
+      <c r="AE52" s="72"/>
+      <c r="AF52" s="73"/>
+      <c r="AG52" s="68"/>
+      <c r="AH52" s="69"/>
+      <c r="AI52" s="69"/>
+      <c r="AJ52" s="68"/>
+      <c r="AK52" s="69"/>
+      <c r="AL52" s="70"/>
     </row>
     <row r="53" spans="1:53" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="42"/>
-      <c r="P53" s="42"/>
-      <c r="Q53" s="42"/>
-      <c r="R53" s="42"/>
-      <c r="S53" s="42"/>
-      <c r="T53" s="42"/>
-      <c r="U53" s="42"/>
-      <c r="V53" s="42"/>
-      <c r="W53" s="42"/>
-      <c r="X53" s="42"/>
-      <c r="Y53" s="42"/>
-      <c r="Z53" s="42"/>
-      <c r="AA53" s="42"/>
-      <c r="AB53" s="42"/>
-      <c r="AC53" s="42"/>
-      <c r="AD53" s="42"/>
-      <c r="AE53" s="42"/>
-      <c r="AF53" s="42"/>
-      <c r="AG53" s="42"/>
-      <c r="AH53" s="42"/>
-      <c r="AI53" s="42"/>
-      <c r="AJ53" s="42"/>
-      <c r="AK53" s="42"/>
-      <c r="AL53" s="43"/>
+      <c r="A53" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="66"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="66"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="66"/>
+      <c r="L53" s="66"/>
+      <c r="M53" s="66"/>
+      <c r="N53" s="66"/>
+      <c r="O53" s="66"/>
+      <c r="P53" s="66"/>
+      <c r="Q53" s="66"/>
+      <c r="R53" s="66"/>
+      <c r="S53" s="66"/>
+      <c r="T53" s="66"/>
+      <c r="U53" s="66"/>
+      <c r="V53" s="66"/>
+      <c r="W53" s="66"/>
+      <c r="X53" s="66"/>
+      <c r="Y53" s="66"/>
+      <c r="Z53" s="66"/>
+      <c r="AA53" s="66"/>
+      <c r="AB53" s="66"/>
+      <c r="AC53" s="66"/>
+      <c r="AD53" s="66"/>
+      <c r="AE53" s="66"/>
+      <c r="AF53" s="66"/>
+      <c r="AG53" s="66"/>
+      <c r="AH53" s="66"/>
+      <c r="AI53" s="66"/>
+      <c r="AJ53" s="66"/>
+      <c r="AK53" s="66"/>
+      <c r="AL53" s="67"/>
     </row>
     <row r="54" spans="1:53" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="73" t="s">
+      <c r="A54" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="74"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="74"/>
-      <c r="J54" s="74"/>
-      <c r="K54" s="74"/>
-      <c r="L54" s="74"/>
-      <c r="M54" s="74"/>
-      <c r="N54" s="74"/>
-      <c r="O54" s="74"/>
-      <c r="P54" s="74"/>
-      <c r="Q54" s="74"/>
-      <c r="R54" s="74"/>
-      <c r="S54" s="74"/>
-      <c r="T54" s="74"/>
-      <c r="U54" s="74"/>
-      <c r="V54" s="74"/>
-      <c r="W54" s="74"/>
-      <c r="X54" s="74"/>
-      <c r="Y54" s="74"/>
-      <c r="Z54" s="74"/>
-      <c r="AA54" s="74"/>
-      <c r="AB54" s="74"/>
-      <c r="AC54" s="74"/>
-      <c r="AD54" s="74"/>
-      <c r="AE54" s="74"/>
-      <c r="AF54" s="74"/>
-      <c r="AG54" s="74"/>
-      <c r="AH54" s="74"/>
-      <c r="AI54" s="74"/>
-      <c r="AJ54" s="74"/>
-      <c r="AK54" s="74"/>
-      <c r="AL54" s="75"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="58"/>
+      <c r="M54" s="58"/>
+      <c r="N54" s="58"/>
+      <c r="O54" s="58"/>
+      <c r="P54" s="58"/>
+      <c r="Q54" s="58"/>
+      <c r="R54" s="58"/>
+      <c r="S54" s="58"/>
+      <c r="T54" s="58"/>
+      <c r="U54" s="58"/>
+      <c r="V54" s="58"/>
+      <c r="W54" s="58"/>
+      <c r="X54" s="58"/>
+      <c r="Y54" s="58"/>
+      <c r="Z54" s="58"/>
+      <c r="AA54" s="58"/>
+      <c r="AB54" s="58"/>
+      <c r="AC54" s="58"/>
+      <c r="AD54" s="58"/>
+      <c r="AE54" s="58"/>
+      <c r="AF54" s="58"/>
+      <c r="AG54" s="58"/>
+      <c r="AH54" s="58"/>
+      <c r="AI54" s="58"/>
+      <c r="AJ54" s="58"/>
+      <c r="AK54" s="58"/>
+      <c r="AL54" s="59"/>
       <c r="AM54" s="24"/>
       <c r="AN54" s="24"/>
       <c r="AO54" s="24"/>
@@ -3526,172 +3536,172 @@
       <c r="AL57" s="22"/>
     </row>
     <row r="58" spans="1:53" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="59" t="s">
+      <c r="A58" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60"/>
-      <c r="N58" s="60"/>
-      <c r="O58" s="60"/>
-      <c r="P58" s="60"/>
-      <c r="Q58" s="60"/>
-      <c r="R58" s="60"/>
-      <c r="S58" s="60"/>
-      <c r="T58" s="60"/>
-      <c r="U58" s="60"/>
-      <c r="V58" s="60"/>
-      <c r="W58" s="60"/>
-      <c r="X58" s="60"/>
-      <c r="Y58" s="60"/>
-      <c r="Z58" s="60"/>
-      <c r="AA58" s="60"/>
-      <c r="AB58" s="60"/>
-      <c r="AC58" s="60"/>
-      <c r="AD58" s="60"/>
-      <c r="AE58" s="60"/>
-      <c r="AF58" s="60"/>
-      <c r="AG58" s="60"/>
-      <c r="AH58" s="60"/>
-      <c r="AI58" s="60"/>
-      <c r="AJ58" s="60"/>
-      <c r="AK58" s="60"/>
-      <c r="AL58" s="61"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="46"/>
+      <c r="R58" s="46"/>
+      <c r="S58" s="46"/>
+      <c r="T58" s="46"/>
+      <c r="U58" s="46"/>
+      <c r="V58" s="46"/>
+      <c r="W58" s="46"/>
+      <c r="X58" s="46"/>
+      <c r="Y58" s="46"/>
+      <c r="Z58" s="46"/>
+      <c r="AA58" s="46"/>
+      <c r="AB58" s="46"/>
+      <c r="AC58" s="46"/>
+      <c r="AD58" s="46"/>
+      <c r="AE58" s="46"/>
+      <c r="AF58" s="46"/>
+      <c r="AG58" s="46"/>
+      <c r="AH58" s="46"/>
+      <c r="AI58" s="46"/>
+      <c r="AJ58" s="46"/>
+      <c r="AK58" s="46"/>
+      <c r="AL58" s="47"/>
     </row>
     <row r="59" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="59" t="s">
+      <c r="A59" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="60"/>
-      <c r="N59" s="60"/>
-      <c r="O59" s="60"/>
-      <c r="P59" s="60"/>
-      <c r="Q59" s="60"/>
-      <c r="R59" s="60"/>
-      <c r="S59" s="60"/>
-      <c r="T59" s="60"/>
-      <c r="U59" s="60"/>
-      <c r="V59" s="60"/>
-      <c r="W59" s="60"/>
-      <c r="X59" s="60"/>
-      <c r="Y59" s="60"/>
-      <c r="Z59" s="60"/>
-      <c r="AA59" s="60"/>
-      <c r="AB59" s="60"/>
-      <c r="AC59" s="60"/>
-      <c r="AD59" s="60"/>
-      <c r="AE59" s="60"/>
-      <c r="AF59" s="60"/>
-      <c r="AG59" s="60"/>
-      <c r="AH59" s="60"/>
-      <c r="AI59" s="60"/>
-      <c r="AJ59" s="60"/>
-      <c r="AK59" s="60"/>
-      <c r="AL59" s="61"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="46"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="46"/>
+      <c r="X59" s="46"/>
+      <c r="Y59" s="46"/>
+      <c r="Z59" s="46"/>
+      <c r="AA59" s="46"/>
+      <c r="AB59" s="46"/>
+      <c r="AC59" s="46"/>
+      <c r="AD59" s="46"/>
+      <c r="AE59" s="46"/>
+      <c r="AF59" s="46"/>
+      <c r="AG59" s="46"/>
+      <c r="AH59" s="46"/>
+      <c r="AI59" s="46"/>
+      <c r="AJ59" s="46"/>
+      <c r="AK59" s="46"/>
+      <c r="AL59" s="47"/>
     </row>
     <row r="60" spans="1:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="59" t="s">
+      <c r="A60" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="60"/>
-      <c r="N60" s="60"/>
-      <c r="O60" s="60"/>
-      <c r="P60" s="60"/>
-      <c r="Q60" s="60"/>
-      <c r="R60" s="60"/>
-      <c r="S60" s="60"/>
-      <c r="T60" s="60"/>
-      <c r="U60" s="60"/>
-      <c r="V60" s="60"/>
-      <c r="W60" s="60"/>
-      <c r="X60" s="60"/>
-      <c r="Y60" s="60"/>
-      <c r="Z60" s="60"/>
-      <c r="AA60" s="60"/>
-      <c r="AB60" s="60"/>
-      <c r="AC60" s="60"/>
-      <c r="AD60" s="60"/>
-      <c r="AE60" s="60"/>
-      <c r="AF60" s="60"/>
-      <c r="AG60" s="60"/>
-      <c r="AH60" s="60"/>
-      <c r="AI60" s="60"/>
-      <c r="AJ60" s="60"/>
-      <c r="AK60" s="60"/>
-      <c r="AL60" s="61"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="46"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="46"/>
+      <c r="S60" s="46"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="46"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="46"/>
+      <c r="X60" s="46"/>
+      <c r="Y60" s="46"/>
+      <c r="Z60" s="46"/>
+      <c r="AA60" s="46"/>
+      <c r="AB60" s="46"/>
+      <c r="AC60" s="46"/>
+      <c r="AD60" s="46"/>
+      <c r="AE60" s="46"/>
+      <c r="AF60" s="46"/>
+      <c r="AG60" s="46"/>
+      <c r="AH60" s="46"/>
+      <c r="AI60" s="46"/>
+      <c r="AJ60" s="46"/>
+      <c r="AK60" s="46"/>
+      <c r="AL60" s="47"/>
     </row>
     <row r="61" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="59" t="s">
+      <c r="A61" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="60"/>
-      <c r="P61" s="60"/>
-      <c r="Q61" s="60"/>
-      <c r="R61" s="60"/>
-      <c r="S61" s="60"/>
-      <c r="T61" s="60"/>
-      <c r="U61" s="60"/>
-      <c r="V61" s="60"/>
-      <c r="W61" s="60"/>
-      <c r="X61" s="60"/>
-      <c r="Y61" s="60"/>
-      <c r="Z61" s="60"/>
-      <c r="AA61" s="60"/>
-      <c r="AB61" s="60"/>
-      <c r="AC61" s="60"/>
-      <c r="AD61" s="60"/>
-      <c r="AE61" s="60"/>
-      <c r="AF61" s="60"/>
-      <c r="AG61" s="60"/>
-      <c r="AH61" s="60"/>
-      <c r="AI61" s="60"/>
-      <c r="AJ61" s="60"/>
-      <c r="AK61" s="60"/>
-      <c r="AL61" s="61"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="46"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="46"/>
+      <c r="X61" s="46"/>
+      <c r="Y61" s="46"/>
+      <c r="Z61" s="46"/>
+      <c r="AA61" s="46"/>
+      <c r="AB61" s="46"/>
+      <c r="AC61" s="46"/>
+      <c r="AD61" s="46"/>
+      <c r="AE61" s="46"/>
+      <c r="AF61" s="46"/>
+      <c r="AG61" s="46"/>
+      <c r="AH61" s="46"/>
+      <c r="AI61" s="46"/>
+      <c r="AJ61" s="46"/>
+      <c r="AK61" s="46"/>
+      <c r="AL61" s="47"/>
     </row>
     <row r="62" spans="1:53" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
@@ -3828,126 +3838,126 @@
       <c r="Y65" s="3"/>
     </row>
     <row r="66" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="65"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="65"/>
-      <c r="K66" s="65"/>
-      <c r="L66" s="65"/>
-      <c r="M66" s="65"/>
-      <c r="N66" s="65"/>
-      <c r="O66" s="65"/>
-      <c r="P66" s="65"/>
-      <c r="Q66" s="65"/>
-      <c r="R66" s="65"/>
-      <c r="S66" s="65"/>
-      <c r="T66" s="65"/>
-      <c r="U66" s="65"/>
-      <c r="V66" s="65"/>
-      <c r="W66" s="65"/>
-      <c r="X66" s="65"/>
-      <c r="Y66" s="65"/>
-      <c r="Z66" s="65"/>
-      <c r="AA66" s="65"/>
-      <c r="AB66" s="76"/>
-      <c r="AC66" s="76"/>
-      <c r="AD66" s="76"/>
-      <c r="AE66" s="76"/>
-      <c r="AF66" s="76"/>
-      <c r="AG66" s="76"/>
-      <c r="AH66" s="76"/>
-      <c r="AI66" s="76"/>
-      <c r="AJ66" s="76"/>
-      <c r="AK66" s="76"/>
-      <c r="AL66" s="76"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="37"/>
+      <c r="T66" s="37"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="37"/>
+      <c r="Y66" s="37"/>
+      <c r="Z66" s="37"/>
+      <c r="AA66" s="37"/>
+      <c r="AB66" s="60"/>
+      <c r="AC66" s="60"/>
+      <c r="AD66" s="60"/>
+      <c r="AE66" s="60"/>
+      <c r="AF66" s="60"/>
+      <c r="AG66" s="60"/>
+      <c r="AH66" s="60"/>
+      <c r="AI66" s="60"/>
+      <c r="AJ66" s="60"/>
+      <c r="AK66" s="60"/>
+      <c r="AL66" s="60"/>
     </row>
     <row r="67" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="B67" s="66"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="66"/>
-      <c r="L67" s="66"/>
-      <c r="M67" s="66"/>
-      <c r="N67" s="66"/>
-      <c r="O67" s="66"/>
-      <c r="P67" s="66"/>
-      <c r="Q67" s="66"/>
-      <c r="R67" s="66"/>
-      <c r="S67" s="66"/>
-      <c r="T67" s="66"/>
-      <c r="U67" s="66"/>
-      <c r="V67" s="66"/>
-      <c r="W67" s="66"/>
-      <c r="X67" s="66"/>
-      <c r="Y67" s="66"/>
-      <c r="Z67" s="66"/>
-      <c r="AA67" s="66"/>
-      <c r="AB67" s="66"/>
-      <c r="AC67" s="66"/>
-      <c r="AD67" s="66"/>
-      <c r="AE67" s="66"/>
-      <c r="AF67" s="66"/>
-      <c r="AG67" s="66"/>
-      <c r="AH67" s="66"/>
-      <c r="AI67" s="66"/>
-      <c r="AJ67" s="66"/>
-      <c r="AK67" s="66"/>
-      <c r="AL67" s="66"/>
+      <c r="A67" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="44"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="44"/>
+      <c r="V67" s="44"/>
+      <c r="W67" s="44"/>
+      <c r="X67" s="44"/>
+      <c r="Y67" s="44"/>
+      <c r="Z67" s="44"/>
+      <c r="AA67" s="44"/>
+      <c r="AB67" s="44"/>
+      <c r="AC67" s="44"/>
+      <c r="AD67" s="44"/>
+      <c r="AE67" s="44"/>
+      <c r="AF67" s="44"/>
+      <c r="AG67" s="44"/>
+      <c r="AH67" s="44"/>
+      <c r="AI67" s="44"/>
+      <c r="AJ67" s="44"/>
+      <c r="AK67" s="44"/>
+      <c r="AL67" s="44"/>
     </row>
     <row r="68" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="66"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="66"/>
-      <c r="M68" s="66"/>
-      <c r="N68" s="66"/>
-      <c r="O68" s="66"/>
-      <c r="P68" s="66"/>
-      <c r="Q68" s="66"/>
-      <c r="R68" s="66"/>
-      <c r="S68" s="66"/>
-      <c r="T68" s="66"/>
-      <c r="U68" s="66"/>
-      <c r="V68" s="66"/>
-      <c r="W68" s="66"/>
-      <c r="X68" s="66"/>
-      <c r="Y68" s="66"/>
-      <c r="Z68" s="66"/>
-      <c r="AA68" s="66"/>
-      <c r="AB68" s="66"/>
-      <c r="AC68" s="66"/>
-      <c r="AD68" s="66"/>
-      <c r="AE68" s="66"/>
-      <c r="AF68" s="66"/>
-      <c r="AG68" s="66"/>
-      <c r="AH68" s="66"/>
-      <c r="AI68" s="66"/>
-      <c r="AJ68" s="66"/>
-      <c r="AK68" s="66"/>
-      <c r="AL68" s="66"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="44"/>
+      <c r="R68" s="44"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="44"/>
+      <c r="U68" s="44"/>
+      <c r="V68" s="44"/>
+      <c r="W68" s="44"/>
+      <c r="X68" s="44"/>
+      <c r="Y68" s="44"/>
+      <c r="Z68" s="44"/>
+      <c r="AA68" s="44"/>
+      <c r="AB68" s="44"/>
+      <c r="AC68" s="44"/>
+      <c r="AD68" s="44"/>
+      <c r="AE68" s="44"/>
+      <c r="AF68" s="44"/>
+      <c r="AG68" s="44"/>
+      <c r="AH68" s="44"/>
+      <c r="AI68" s="44"/>
+      <c r="AJ68" s="44"/>
+      <c r="AK68" s="44"/>
+      <c r="AL68" s="44"/>
     </row>
     <row r="69" spans="1:38" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
@@ -4086,6 +4096,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A11:AL11"/>
+    <mergeCell ref="AB66:AL66"/>
+    <mergeCell ref="A2:AL2"/>
+    <mergeCell ref="A5:AL5"/>
+    <mergeCell ref="A53:AL53"/>
+    <mergeCell ref="AJ51:AL51"/>
+    <mergeCell ref="AG51:AI51"/>
+    <mergeCell ref="AG52:AI52"/>
+    <mergeCell ref="AJ52:AL52"/>
+    <mergeCell ref="A52:AF52"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A3:AL3"/>
+    <mergeCell ref="A7:AL7"/>
+    <mergeCell ref="A8:AL8"/>
+    <mergeCell ref="A10:AL10"/>
+    <mergeCell ref="A12:AL12"/>
+    <mergeCell ref="A15:AL15"/>
     <mergeCell ref="O66:AA66"/>
     <mergeCell ref="A39:P39"/>
     <mergeCell ref="A14:AL14"/>
@@ -4102,30 +4129,13 @@
     <mergeCell ref="A60:AL60"/>
     <mergeCell ref="A51:AF51"/>
     <mergeCell ref="A54:AL54"/>
-    <mergeCell ref="AB66:AL66"/>
-    <mergeCell ref="A2:AL2"/>
-    <mergeCell ref="A5:AL5"/>
-    <mergeCell ref="A53:AL53"/>
-    <mergeCell ref="AJ51:AL51"/>
-    <mergeCell ref="AG51:AI51"/>
-    <mergeCell ref="AG52:AI52"/>
-    <mergeCell ref="AJ52:AL52"/>
-    <mergeCell ref="A52:AF52"/>
-    <mergeCell ref="A45:N45"/>
-    <mergeCell ref="A3:AL3"/>
-    <mergeCell ref="A7:AL7"/>
-    <mergeCell ref="A8:AL8"/>
-    <mergeCell ref="A10:AL10"/>
-    <mergeCell ref="A12:AL12"/>
-    <mergeCell ref="A15:AL15"/>
-    <mergeCell ref="A11:AL11"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="60" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
     <oddHeader>&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;L&amp;"Arial,Negrita"&amp;5&amp;K0033CCControl de versiones&amp;"Arial,Normal"&amp;K01+000
-Circular ASFI/740/2022 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
+Circular ASFI/828/2024 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
 Título III
 Capítulo VIII
 Anexo 3.1
